--- a/応用情報午前試験統計.xlsx
+++ b/応用情報午前試験統計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="24795" windowHeight="10980"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="24795" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,8 +93,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -103,10 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -413,7 +416,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -423,35 +426,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="2" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>42704.48541666667</v>
       </c>
       <c r="B2">
@@ -512,7 +515,7 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>42704.745833333334</v>
       </c>
       <c r="B3">
@@ -522,7 +525,7 @@
         <v>80</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D40" si="0">ROUND(B3/C3*100,0)</f>
+        <f t="shared" ref="D3:D32" si="0">ROUND(B3/C3*100,0)</f>
         <v>70</v>
       </c>
       <c r="E3">
@@ -573,6 +576,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
+        <v>42705</v>
+      </c>
       <c r="D4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>

--- a/応用情報午前試験統計.xlsx
+++ b/応用情報午前試験統計.xlsx
@@ -54,6 +54,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -103,14 +106,14 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -416,7 +419,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -426,29 +429,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
       <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
@@ -576,74 +579,125 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
-        <v>42705</v>
-      </c>
-      <c r="D4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q4" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="A4" s="3">
+        <v>42709.40347222222</v>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E4">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>59.4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>66.7</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="7"/>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="A5" s="2">
+        <v>42709.585416666669</v>
+      </c>
+      <c r="B5">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>73.2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>83.3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>18</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="5"/>
+        <v>55.6</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="7"/>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">

--- a/応用情報午前試験統計.xlsx
+++ b/応用情報午前試験統計.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -701,37 +701,64 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D6" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="A6" s="2">
+        <v>42712.381944444445</v>
+      </c>
+      <c r="B6">
+        <v>59</v>
+      </c>
+      <c r="C6">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>41</v>
+      </c>
+      <c r="F6">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>74.5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>72.7</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>14</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>71.400000000000006</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="7"/>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">

--- a/応用情報午前試験統計.xlsx
+++ b/応用情報午前試験統計.xlsx
@@ -96,24 +96,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -762,71 +765,125 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="A7" s="2">
+        <v>42716.443749999999</v>
+      </c>
+      <c r="B7">
+        <v>60</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <v>57</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>80.7</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>11</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>72.7</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="7"/>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q8" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="A8" s="6">
+        <v>42716.492361111108</v>
+      </c>
+      <c r="B8">
+        <v>51</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>34</v>
+      </c>
+      <c r="F8">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>65.400000000000006</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>72.7</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>9</v>
+      </c>
+      <c r="N8">
+        <v>17</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>52.9</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">

--- a/応用情報午前試験統計.xlsx
+++ b/応用情報午前試験統計.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>テクノロジ系</t>
     <rPh sb="5" eb="6">
@@ -49,13 +49,35 @@
     <t>スコア</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>最高</t>
+    <rPh sb="0" eb="2">
+      <t>サイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,19 +441,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
@@ -458,8 +481,17 @@
       <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42704.48541666667</v>
       </c>
@@ -470,7 +502,7 @@
         <v>80</v>
       </c>
       <c r="D2">
-        <f>ROUND(B2/C2*100,0)</f>
+        <f>IF(A2="",0,ROUND(B2/C2*100,0))</f>
         <v>54</v>
       </c>
       <c r="E2">
@@ -480,7 +512,7 @@
         <v>62</v>
       </c>
       <c r="G2">
-        <f>ROUND(E2/F2*100,1)</f>
+        <f>IF(A2="",0,ROUND(E2/F2*100,1))</f>
         <v>53.2</v>
       </c>
       <c r="H2">
@@ -494,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="K2">
-        <f>ROUND(I2/J2*100,1)</f>
+        <f>IF(A2="",0,ROUND(I2/J2*100,1))</f>
         <v>50</v>
       </c>
       <c r="L2">
@@ -508,7 +540,7 @@
         <v>16</v>
       </c>
       <c r="O2">
-        <f>ROUND(M2/N2*100,1)</f>
+        <f>IF(A2="",0,ROUND(M2/N2*100,1))</f>
         <v>56.3</v>
       </c>
       <c r="P2">
@@ -519,8 +551,24 @@
         <f>SUM(H2,L2,P2)</f>
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="R2">
+        <f>SUM(MAX(H2:H100)+MAX(L2:L100)+MAX(P2:P100))</f>
+        <v>84</v>
+      </c>
+      <c r="S2">
+        <f ca="1">SUM(MIN(H2:INDIRECT(ADDRESS(U2,8)))+MIN(L2:INDIRECT(ADDRESS(U2,12)))+MIN(P2:INDIRECT(ADDRESS(U2,16))))</f>
+        <v>51</v>
+      </c>
+      <c r="T2">
+        <f ca="1">SUM(AVERAGEA(H2:INDIRECT(ADDRESS(U2,8)))+AVERAGEA(L2:INDIRECT(ADDRESS(U2,12)))+AVERAGEA(P2:INDIRECT(ADDRESS(U2,16))))</f>
+        <v>67.7</v>
+      </c>
+      <c r="U2" s="6">
+        <f>COUNT(A2:A100)+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42704.745833333334</v>
       </c>
@@ -531,7 +579,7 @@
         <v>80</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D32" si="0">ROUND(B3/C3*100,0)</f>
+        <f t="shared" ref="D3:D32" si="0">IF(A3="",0,ROUND(B3/C3*100,0))</f>
         <v>70</v>
       </c>
       <c r="E3">
@@ -541,7 +589,7 @@
         <v>60</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G32" si="1">ROUND(E3/F3*100,1)</f>
+        <f t="shared" ref="G3:G32" si="1">IF(A3="",0,ROUND(E3/F3*100,1))</f>
         <v>68.3</v>
       </c>
       <c r="H3">
@@ -555,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K32" si="3">ROUND(I3/J3*100,1)</f>
+        <f t="shared" ref="K3:K32" si="3">IF(A3="",0,ROUND(I3/J3*100,1))</f>
         <v>100</v>
       </c>
       <c r="L3">
@@ -569,7 +617,7 @@
         <v>15</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O32" si="5">ROUND(M3/N3*100,1)</f>
+        <f t="shared" ref="O3:O32" si="5">IF(A3="",0,ROUND(M3/N3*100,1))</f>
         <v>66.7</v>
       </c>
       <c r="P3">
@@ -581,7 +629,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>42709.40347222222</v>
       </c>
@@ -642,7 +690,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42709.585416666669</v>
       </c>
@@ -703,7 +751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>42712.381944444445</v>
       </c>
@@ -764,7 +812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>42716.443749999999</v>
       </c>
@@ -825,8 +873,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>42716.492361111108</v>
       </c>
       <c r="B8">
@@ -886,820 +934,901 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D9" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q9" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D10" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O10" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P10" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q10" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D11" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K11" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L11" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O11" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P11" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q11" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D12" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D13" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K13" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L13" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O13" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P13" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q13" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D14" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K14" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L14" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O14" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P14" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q14" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D15" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K15" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O15" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P15" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q15" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="D16" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K16" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O16" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P16" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q16" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>42720.481944444444</v>
+      </c>
+      <c r="B9">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E9">
+        <v>41</v>
+      </c>
+      <c r="F9">
+        <v>56</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>73.2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>66.7</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>18</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>55.6</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>42723.438888888886</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
+      <c r="D10">
+        <f>IF(A10="",0,ROUND(B10/C10*100,0))</f>
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>44</v>
+      </c>
+      <c r="F10">
+        <v>58</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>75.900000000000006</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10">
+        <v>14</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>85.7</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>42724.427777777775</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>80</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E11">
+        <v>42</v>
+      </c>
+      <c r="F11">
+        <v>58</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>72.400000000000006</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>17</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>58.8</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O17" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P17" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q17" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K18" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O18" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P18" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q18" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K19" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O19" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P19" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q19" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K20" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L20" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P20" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q20" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O21" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P21" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q21" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K22" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L22" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O22" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P22" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q22" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H23" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L23" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O23" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P23" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q23" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D24" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H24" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D25" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P25" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q25" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D26" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L26" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O26" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P26" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q26" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D27" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P27" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q27" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D28" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K28" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L28" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P28" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q28" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D29" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K29" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P29" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q29" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D30" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K30" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O30" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P30" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q30" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D31" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K31" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L31" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O31" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P31" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q31" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="4:17" x14ac:dyDescent="0.15">
-      <c r="D32" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K32" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L32" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O32" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P32" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q32" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/応用情報午前試験統計.xlsx
+++ b/応用情報午前試験統計.xlsx
@@ -131,14 +131,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -444,7 +444,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -455,29 +455,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
       <c r="Q1" s="1" t="s">
         <v>4</v>
       </c>
@@ -563,7 +563,7 @@
         <f ca="1">SUM(AVERAGEA(H2:INDIRECT(ADDRESS(U2,8)))+AVERAGEA(L2:INDIRECT(ADDRESS(U2,12)))+AVERAGEA(P2:INDIRECT(ADDRESS(U2,16))))</f>
         <v>67.7</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="4">
         <f>COUNT(A2:A100)+1</f>
         <v>11</v>
       </c>

--- a/応用情報午前試験統計.xlsx
+++ b/応用情報午前試験統計.xlsx
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -553,7 +553,7 @@
       </c>
       <c r="R2">
         <f>SUM(MAX(H2:H100)+MAX(L2:L100)+MAX(P2:P100))</f>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="S2">
         <f ca="1">SUM(MIN(H2:INDIRECT(ADDRESS(U2,8)))+MIN(L2:INDIRECT(ADDRESS(U2,12)))+MIN(P2:INDIRECT(ADDRESS(U2,16))))</f>
@@ -561,11 +561,11 @@
       </c>
       <c r="T2">
         <f ca="1">SUM(AVERAGEA(H2:INDIRECT(ADDRESS(U2,8)))+AVERAGEA(L2:INDIRECT(ADDRESS(U2,12)))+AVERAGEA(P2:INDIRECT(ADDRESS(U2,16))))</f>
-        <v>67.7</v>
+        <v>69.428571428571431</v>
       </c>
       <c r="U2" s="4">
         <f>COUNT(A2:A100)+1</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
@@ -1118,139 +1118,247 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>42739.427083333336</v>
+      </c>
+      <c r="B12">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>56</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>77.8</v>
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>9</v>
+      </c>
+      <c r="N12">
+        <v>15</v>
       </c>
       <c r="O12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>42739.467361111114</v>
+      </c>
+      <c r="B13">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>80</v>
+      </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="E13">
+        <v>40</v>
+      </c>
+      <c r="F13">
+        <v>59</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>67.8</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="L13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>15</v>
       </c>
       <c r="O13">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P13">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q13">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>42739.493055555555</v>
+      </c>
+      <c r="B14">
+        <v>101</v>
+      </c>
+      <c r="C14">
+        <v>120</v>
+      </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="E14">
+        <v>72</v>
+      </c>
+      <c r="F14">
+        <v>86</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83.7</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>17</v>
+      </c>
+      <c r="N14">
+        <v>19</v>
       </c>
       <c r="O14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>89.5</v>
       </c>
       <c r="P14">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q14">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>42739.744444444441</v>
+      </c>
+      <c r="B15">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>80</v>
+      </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>57</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>88.9</v>
       </c>
       <c r="L15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>14</v>
       </c>
       <c r="O15">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="P15">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q15">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">

--- a/応用情報午前試験統計.xlsx
+++ b/応用情報午前試験統計.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,20 +552,20 @@
         <v>53</v>
       </c>
       <c r="R2">
-        <f>SUM(MAX(H2:H100)+MAX(L2:L100)+MAX(P2:P100))</f>
-        <v>87</v>
+        <f>MAX(Q2:Q100)</f>
+        <v>90</v>
       </c>
       <c r="S2">
-        <f ca="1">SUM(MIN(H2:INDIRECT(ADDRESS(U2,8)))+MIN(L2:INDIRECT(ADDRESS(U2,12)))+MIN(P2:INDIRECT(ADDRESS(U2,16))))</f>
-        <v>51</v>
+        <f ca="1">MIN(Q2:INDIRECT(ADDRESS(U2,17)))</f>
+        <v>53</v>
       </c>
       <c r="T2">
-        <f ca="1">SUM(AVERAGEA(H2:INDIRECT(ADDRESS(U2,8)))+AVERAGEA(L2:INDIRECT(ADDRESS(U2,12)))+AVERAGEA(P2:INDIRECT(ADDRESS(U2,16))))</f>
-        <v>69.428571428571431</v>
+        <f ca="1">AVERAGEA(Q2:INDIRECT(ADDRESS(U2,17)))</f>
+        <v>72.233333333333334</v>
       </c>
       <c r="U2" s="4">
         <f>COUNT(A2:A100)+1</f>
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.15">
@@ -1362,550 +1362,982 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>42740.402777777781</v>
+      </c>
+      <c r="B16">
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>80</v>
+      </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>53</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>75.5</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>77.8</v>
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <v>18</v>
       </c>
       <c r="O16">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>77.8</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>42740.431250000001</v>
+      </c>
+      <c r="B17">
+        <v>83</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="E17">
+        <v>58</v>
+      </c>
+      <c r="F17">
+        <v>69</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>84.1</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+      <c r="J17">
+        <v>14</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>92.9</v>
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+      <c r="N17">
+        <v>17</v>
       </c>
       <c r="O17">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="P17">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q17">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>42745.395833333336</v>
+      </c>
+      <c r="B18">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>80</v>
+      </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="E18">
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <v>54</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
       </c>
       <c r="K18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>16</v>
       </c>
       <c r="O18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>42745.45208333333</v>
+      </c>
+      <c r="B19">
+        <v>63</v>
+      </c>
+      <c r="C19">
+        <v>80</v>
+      </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="E19">
+        <v>48</v>
+      </c>
+      <c r="F19">
+        <v>59</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
       </c>
       <c r="K19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>87.5</v>
       </c>
       <c r="L19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>13</v>
       </c>
       <c r="O19">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>61.5</v>
       </c>
       <c r="P19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q19">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>42745.479166666664</v>
+      </c>
+      <c r="B20">
+        <v>53</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="E20">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>51</v>
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60.8</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>9</v>
       </c>
       <c r="K20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>77.8</v>
       </c>
       <c r="L20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>20</v>
       </c>
       <c r="O20">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P20">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q20">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>42745.54583333333</v>
+      </c>
+      <c r="B21">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>80</v>
+      </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>65</v>
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
       </c>
       <c r="K21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
       </c>
       <c r="O21">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P21">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q21">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>42746.412499999999</v>
+      </c>
+      <c r="B22">
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>80</v>
+      </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>41</v>
+      </c>
+      <c r="F22">
+        <v>57</v>
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>6</v>
       </c>
       <c r="K22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>66.7</v>
       </c>
       <c r="L22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="M22">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>17</v>
       </c>
       <c r="O22">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>64.7</v>
       </c>
       <c r="P22">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q22">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>42746.443749999999</v>
+      </c>
+      <c r="B23">
+        <v>58</v>
+      </c>
+      <c r="C23">
+        <v>80</v>
+      </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="E23">
+        <v>47</v>
+      </c>
+      <c r="F23">
+        <v>61</v>
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>6</v>
       </c>
       <c r="K23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>83.3</v>
       </c>
       <c r="L23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>13</v>
       </c>
       <c r="O23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="P23">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q23">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>42746.720138888886</v>
+      </c>
+      <c r="B24">
+        <v>55</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="E24">
+        <v>40</v>
+      </c>
+      <c r="F24">
+        <v>57</v>
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
       </c>
       <c r="K24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54.5</v>
       </c>
       <c r="L24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>9</v>
+      </c>
+      <c r="N24">
+        <v>12</v>
       </c>
       <c r="O24">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P24">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q24">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>42746.738194444442</v>
+      </c>
+      <c r="B25">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>80</v>
+      </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="E25">
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>58</v>
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
       </c>
       <c r="K25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="M25">
+        <v>7</v>
+      </c>
+      <c r="N25">
+        <v>12</v>
       </c>
       <c r="O25">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>58.3</v>
       </c>
       <c r="P25">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q25">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>42747.413888888892</v>
+      </c>
+      <c r="B26">
+        <v>58</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="E26">
+        <v>41</v>
+      </c>
+      <c r="F26">
+        <v>57</v>
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="I26">
+        <v>8</v>
+      </c>
+      <c r="J26">
+        <v>9</v>
       </c>
       <c r="K26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>88.9</v>
       </c>
       <c r="L26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>14</v>
       </c>
       <c r="O26">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>64.3</v>
       </c>
       <c r="P26">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q26">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>42747.43472222222</v>
+      </c>
+      <c r="B27">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>80</v>
+      </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="E27">
+        <v>43</v>
+      </c>
+      <c r="F27">
+        <v>60</v>
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71.7</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
       </c>
       <c r="K27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>77.8</v>
       </c>
       <c r="L27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>7</v>
+      </c>
+      <c r="N27">
+        <v>11</v>
       </c>
       <c r="O27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>63.6</v>
       </c>
       <c r="P27">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q27">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>42747.451388888891</v>
+      </c>
+      <c r="B28">
+        <v>90</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="E28">
+        <v>66</v>
+      </c>
+      <c r="F28">
+        <v>72</v>
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>91.7</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <v>14</v>
       </c>
       <c r="K28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="L28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <v>14</v>
       </c>
       <c r="O28">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>92.9</v>
       </c>
       <c r="P28">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q28">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>42748.40902777778</v>
+      </c>
+      <c r="B29">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>80</v>
+      </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="E29">
+        <v>42</v>
+      </c>
+      <c r="F29">
+        <v>59</v>
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>71.2</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="I29">
+        <v>7</v>
+      </c>
+      <c r="J29">
+        <v>11</v>
       </c>
       <c r="K29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>63.6</v>
       </c>
       <c r="L29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="M29">
+        <v>7</v>
+      </c>
+      <c r="N29">
+        <v>10</v>
       </c>
       <c r="O29">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P29">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q29">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>42748.428472222222</v>
+      </c>
+      <c r="B30">
+        <v>67</v>
+      </c>
+      <c r="C30">
+        <v>80</v>
+      </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="E30">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>53</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>84.9</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
       </c>
       <c r="K30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="M30">
+        <v>18</v>
+      </c>
+      <c r="N30">
+        <v>23</v>
       </c>
       <c r="O30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>78.3</v>
       </c>
       <c r="P30">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q30">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>42748.449305555558</v>
+      </c>
+      <c r="B31">
+        <v>80</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="E31">
+        <v>62</v>
+      </c>
+      <c r="F31">
+        <v>77</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80.5</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <v>7</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
       </c>
       <c r="K31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="L31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <v>11</v>
+      </c>
+      <c r="N31">
+        <v>13</v>
       </c>
       <c r="O31">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>84.6</v>
       </c>
       <c r="P31">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q31">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/応用情報午前試験統計.xlsx
+++ b/応用情報午前試験統計.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="24795" windowHeight="10965"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="24800" windowHeight="10960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -83,14 +88,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -142,7 +147,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,18 +448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21">
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
@@ -491,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21">
       <c r="A2" s="2">
         <v>42704.48541666667</v>
       </c>
@@ -568,7 +573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21">
       <c r="A3" s="2">
         <v>42704.745833333334</v>
       </c>
@@ -629,7 +634,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21">
       <c r="A4" s="3">
         <v>42709.40347222222</v>
       </c>
@@ -690,7 +695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21">
       <c r="A5" s="2">
         <v>42709.585416666669</v>
       </c>
@@ -751,7 +756,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>42712.381944444445</v>
       </c>
@@ -812,7 +817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>42716.443749999999</v>
       </c>
@@ -873,7 +878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21">
       <c r="A8" s="2">
         <v>42716.492361111108</v>
       </c>
@@ -934,7 +939,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21">
       <c r="A9" s="2">
         <v>42720.481944444444</v>
       </c>
@@ -995,7 +1000,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21">
       <c r="A10" s="2">
         <v>42723.438888888886</v>
       </c>
@@ -1056,7 +1061,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:21">
       <c r="A11" s="2">
         <v>42724.427777777775</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:21">
       <c r="A12" s="2">
         <v>42739.427083333336</v>
       </c>
@@ -1178,7 +1183,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:21">
       <c r="A13" s="2">
         <v>42739.467361111114</v>
       </c>
@@ -1239,7 +1244,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:21">
       <c r="A14" s="2">
         <v>42739.493055555555</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:21">
       <c r="A15" s="2">
         <v>42739.744444444441</v>
       </c>
@@ -1361,7 +1366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:21">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1395,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:17">
       <c r="D17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1429,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:17">
       <c r="D18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1463,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:17">
       <c r="D19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1497,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:17">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1531,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:17">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1565,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:17">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1599,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:17">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1633,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:17">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1667,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:17">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1701,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:17">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1735,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:17">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1769,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:17">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1803,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:17">
       <c r="D29">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1837,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:17">
       <c r="D30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1871,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:17">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1905,7 +1910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:17">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1948,7 +1953,12 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1958,10 +1968,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1971,9 +1986,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>